--- a/Browse/target/test-classes/dataProvider/TestData.xlsx
+++ b/Browse/target/test-classes/dataProvider/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\theScoreApp\Browse\src\test\resources\dataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{445F4392-D5E1-4669-864A-64F1C1F4D102}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{23C8FB23-82DB-43B4-A2FE-8A4750F63A5E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="35844" windowHeight="20064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>TestName</t>
   </si>
   <si>
-    <t>addInfo</t>
-  </si>
-  <si>
     <t>leagues</t>
   </si>
   <si>
@@ -40,16 +37,10 @@
     <t>Toronto Maple Leafs</t>
   </si>
   <si>
-    <t>addInfo_NHL_Hockey_Maple_Leafs</t>
-  </si>
-  <si>
     <t>leagueHomepageValidationTest</t>
   </si>
   <si>
     <t>Montreal Canadiens</t>
-  </si>
-  <si>
-    <t>addInfo_NHL_Hockey_Montreal_Canadiens</t>
   </si>
 </sst>
 </file>
@@ -101,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,26 +115,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -462,9 +441,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -473,57 +452,43 @@
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="35.796875" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome@123" xr:uid="{8A6F7726-9A15-4E37-A445-1BA22EB55445}"/>
-    <hyperlink ref="B2" r:id="rId2" display="gurjotahuja@gmail.com" xr:uid="{5DCD7B0D-0EFA-41E7-A8DF-DEC63195CEAC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>